--- a/disney_movies_cleaned.xlsx
+++ b/disney_movies_cleaned.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I580"/>
+  <dimension ref="A1:J580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,11 @@
           <t>release_month</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>inflation_multiplier</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +525,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>28.27600128235435</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -557,6 +565,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>25.95764</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +605,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>26.24928958233317</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -631,6 +645,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>16.59247044615385</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -668,6 +685,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>10.83069094117647</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -705,6 +725,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>18.73333312056738</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -742,6 +765,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>13.20550763888889</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -779,6 +805,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>2.272236948429349</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -816,6 +845,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>8.907653496732026</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -853,6 +885,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>12.21739102170341</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -890,6 +925,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>12.21739081077547</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -927,6 +965,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>11.87134528011697</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -964,6 +1005,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>6.9366326466809</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1001,6 +1045,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>5.566805171915427</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1038,6 +1085,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>6.435114403169909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1075,6 +1125,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>4.583032261530468</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1112,6 +1165,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>5.438709418765302</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1149,6 +1205,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>5.109090650675776</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1186,6 +1245,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>4.112195008851221</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1223,6 +1285,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>3.780268791920438</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1260,6 +1325,7 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1297,6 +1363,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>3.275078467001502</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1334,6 +1403,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>3.780268821428571</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1371,6 +1443,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>3.358565551531433</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1408,6 +1483,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>3.133826206896552</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1445,6 +1523,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>3.133828727272727</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1482,6 +1563,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>3.03237375</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1519,6 +1603,7 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1556,6 +1641,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>3.032374052292624</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1593,6 +1681,7 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1630,6 +1719,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>2.867346444444444</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1667,6 +1759,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>2.867346883430981</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1704,6 +1799,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>2.867346731842396</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1741,6 +1839,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>2.676190429725162</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1778,6 +1879,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>2.67619027076493</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1815,6 +1919,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>2.554142100456674</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1852,6 +1959,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>2.676189922754121</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1889,6 +1999,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>2.508928562442876</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1926,6 +2039,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>2.508928571428572</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1963,6 +2079,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>2.374647759068569</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2000,6 +2119,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>2.374647147473075</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2037,6 +2159,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>2.374647629830898</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2074,6 +2199,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>2.374646585365854</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2111,6 +2239,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>2.355486902271445</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2148,6 +2279,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>2.374647473822546</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2185,6 +2319,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>2.272237128571251</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2222,6 +2359,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>2.272235481370403</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2259,6 +2399,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>2.272237164966101</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2296,6 +2439,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>2.272236967822884</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2333,6 +2479,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>2.272236808814706</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2370,6 +2519,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>2.272237098411057</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2407,6 +2559,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J53" t="n">
+        <v>2.255700055456753</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2444,6 +2599,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J54" t="n">
+        <v>2.156010203473805</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2481,6 +2639,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J55" t="n">
+        <v>2.156009987019205</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2518,6 +2679,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J56" t="n">
+        <v>2.156009970827817</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2555,6 +2719,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J57" t="n">
+        <v>2.156009723294711</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2592,6 +2759,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J58" t="n">
+        <v>2.156010032635096</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2629,6 +2799,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J59" t="n">
+        <v>2.156010196726572</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2666,6 +2839,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J60" t="n">
+        <v>2.156009994107925</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2703,6 +2879,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J61" t="n">
+        <v>2.15600996226832</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2740,6 +2919,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J62" t="n">
+        <v>2.105927913393749</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2777,6 +2959,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J63" t="n">
+        <v>2.053017844962132</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2814,6 +2999,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J64" t="n">
+        <v>2.051094675767918</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2851,6 +3039,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J65" t="n">
+        <v>2.051094567668554</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2888,6 +3079,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J66" t="n">
+        <v>2.051094368411781</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2925,6 +3119,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J67" t="n">
+        <v>2.051094697805284</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2962,6 +3159,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J68" t="n">
+        <v>2.052073001324254</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2999,6 +3199,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J69" t="n">
+        <v>2.051094890510949</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3036,6 +3239,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J70" t="n">
+        <v>2.051094102666397</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3073,6 +3279,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J71" t="n">
+        <v>2.051093790867527</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3110,6 +3319,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J72" t="n">
+        <v>2.051094046391244</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3147,6 +3359,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J73" t="n">
+        <v>2.051094902157849</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3184,6 +3399,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J74" t="n">
+        <v>2.062552606648397</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3221,6 +3439,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J75" t="n">
+        <v>2.110410571070729</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3258,6 +3479,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J76" t="n">
+        <v>2.112781892091648</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3295,6 +3519,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J77" t="n">
+        <v>2.112781762088041</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3332,6 +3559,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J78" t="n">
+        <v>2.112780887052403</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3369,6 +3599,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J79" t="n">
+        <v>2.112781889393916</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3406,6 +3639,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J80" t="n">
+        <v>2.11278193446886</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3443,6 +3679,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J81" t="n">
+        <v>2.11278194409771</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3480,6 +3719,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J82" t="n">
+        <v>2.112781629610835</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3517,6 +3759,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J83" t="n">
+        <v>2.112781588595889</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3554,6 +3799,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J84" t="n">
+        <v>2.112781510897142</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3591,6 +3839,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J85" t="n">
+        <v>2.005729191932412</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3628,6 +3879,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J86" t="n">
+        <v>2.093711894138955</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3665,6 +3919,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J87" t="n">
+        <v>1.997630038001037</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3702,6 +3959,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J88" t="n">
+        <v>1.997623986081927</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3739,6 +3999,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J89" t="n">
+        <v>1.997630290657725</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3776,6 +4039,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J90" t="n">
+        <v>1.997630162948471</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3813,6 +4079,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J91" t="n">
+        <v>1.997630133333333</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3850,6 +4119,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J92" t="n">
+        <v>1.99763022146139</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3887,6 +4159,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J93" t="n">
+        <v>1.997630287073315</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3924,6 +4199,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J94" t="n">
+        <v>1.997630048930931</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3961,6 +4239,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J95" t="n">
+        <v>1.997630251589135</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3998,6 +4279,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J96" t="n">
+        <v>1.997629974245008</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4035,6 +4319,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J97" t="n">
+        <v>1.997630144008366</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4072,6 +4359,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J98" t="n">
+        <v>1.997629923898124</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4109,6 +4399,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J99" t="n">
+        <v>1.997630127546855</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4146,6 +4439,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J100" t="n">
+        <v>1.998467057102804</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4183,6 +4479,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J101" t="n">
+        <v>2.002375271727925</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4220,6 +4519,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J102" t="n">
+        <v>2.002375242127702</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4257,6 +4559,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J103" t="n">
+        <v>2.002374575634401</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4294,6 +4599,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J104" t="n">
+        <v>2.00237516300334</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4331,6 +4639,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J105" t="n">
+        <v>2.002375154639572</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4368,6 +4679,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J106" t="n">
+        <v>2.00237506576067</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4405,6 +4719,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J107" t="n">
+        <v>2.002374777486542</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4442,6 +4759,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J108" t="n">
+        <v>2.002375215821692</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4479,6 +4799,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J109" t="n">
+        <v>2.002374383561644</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4516,6 +4839,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J110" t="n">
+        <v>2.002375173080333</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4553,6 +4879,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J111" t="n">
+        <v>2.002375119608037</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4590,6 +4919,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J112" t="n">
+        <v>2.002374824138032</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4627,6 +4959,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J113" t="n">
+        <v>2.002375279141666</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4664,6 +4999,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J114" t="n">
+        <v>2.002374767380692</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4701,6 +5039,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J115" t="n">
+        <v>2.002374824152832</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4738,6 +5079,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J116" t="n">
+        <v>1.657981149945793</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4775,6 +5119,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J117" t="n">
+        <v>2.013101715988374</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4812,6 +5159,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J118" t="n">
+        <v>2.031325248817019</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4849,6 +5199,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J119" t="n">
+        <v>2.031325253224598</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4886,6 +5239,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J120" t="n">
+        <v>2.031323167494219</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4923,6 +5279,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J121" t="n">
+        <v>2.031324282458858</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4960,6 +5319,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J122" t="n">
+        <v>2.031325106066149</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4997,6 +5359,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J123" t="n">
+        <v>2.031325193470768</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5034,6 +5399,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J124" t="n">
+        <v>2.031324357266672</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5071,6 +5439,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J125" t="n">
+        <v>2.031325209769147</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5108,6 +5479,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J126" t="n">
+        <v>2.0313252913664</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5145,6 +5519,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J127" t="n">
+        <v>2.03132521634111</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5182,6 +5559,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J128" t="n">
+        <v>2.031324935923603</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5219,6 +5599,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J129" t="n">
+        <v>2.031325065454044</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5256,6 +5639,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J130" t="n">
+        <v>2.031325143534941</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5293,6 +5679,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J131" t="n">
+        <v>2.031325115972278</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5330,6 +5719,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J132" t="n">
+        <v>2.031324995804957</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5367,6 +5759,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J133" t="n">
+        <v>2.031324633777455</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5404,6 +5799,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J134" t="n">
+        <v>2.03184357796174</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5441,6 +5839,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J135" t="n">
+        <v>2.031324886108674</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5478,6 +5879,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J136" t="n">
+        <v>2.031325283460407</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5515,6 +5919,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J137" t="n">
+        <v>2.033442524389635</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5552,6 +5959,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J138" t="n">
+        <v>2.031889172226641</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5589,6 +5999,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J139" t="n">
+        <v>2.031325285659623</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5626,6 +6039,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J140" t="n">
+        <v>2.03623181698346</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5663,6 +6079,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J141" t="n">
+        <v>2.036231664173696</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5700,6 +6119,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J142" t="n">
+        <v>2.036231761071628</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5737,6 +6159,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J143" t="n">
+        <v>2.036230790019595</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5774,6 +6199,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J144" t="n">
+        <v>2.03623151351027</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5811,6 +6239,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J145" t="n">
+        <v>2.03623171091958</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5848,6 +6279,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J146" t="n">
+        <v>2.036231795114104</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5885,6 +6319,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J147" t="n">
+        <v>2.036231816715798</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5922,6 +6359,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J148" t="n">
+        <v>2.036231511794623</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5959,6 +6399,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J149" t="n">
+        <v>2.036231580276224</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5996,6 +6439,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J150" t="n">
+        <v>2.036231584050723</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6033,6 +6479,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J151" t="n">
+        <v>2.036231524342296</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6070,6 +6519,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J152" t="n">
+        <v>2.03623128261607</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6107,6 +6559,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J153" t="n">
+        <v>2.036231799549863</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6144,6 +6599,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J154" t="n">
+        <v>2.036231589907906</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6181,6 +6639,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J155" t="n">
+        <v>2.036231687252072</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6218,6 +6679,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J156" t="n">
+        <v>2.036231896310949</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6255,6 +6719,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J157" t="n">
+        <v>2.036229970530141</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6292,6 +6759,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J158" t="n">
+        <v>2.036231837496019</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6329,6 +6799,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J159" t="n">
+        <v>2.036231798754647</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6366,6 +6839,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J160" t="n">
+        <v>2.036224282750013</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6403,6 +6879,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J161" t="n">
+        <v>2.036231609828922</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6440,6 +6919,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J162" t="n">
+        <v>2.038924636383476</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6477,6 +6959,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J163" t="n">
+        <v>1.984328003168049</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6514,6 +6999,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J164" t="n">
+        <v>2.037023857099104</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6551,6 +7039,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J165" t="n">
+        <v>2.040607980292199</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6588,6 +7079,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J166" t="n">
+        <v>2.049050540867443</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6625,6 +7119,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J167" t="n">
+        <v>2.066176448298489</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6662,6 +7159,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J168" t="n">
+        <v>2.066174221997278</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6699,6 +7199,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J169" t="n">
+        <v>2.066176371113691</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6736,6 +7239,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J170" t="n">
+        <v>2.066175274749646</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6773,6 +7279,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J171" t="n">
+        <v>2.066176464335278</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6810,6 +7319,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J172" t="n">
+        <v>2.066175951642118</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6847,6 +7359,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J173" t="n">
+        <v>2.066176285561791</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6884,6 +7399,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J174" t="n">
+        <v>2.0661763741704</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6921,6 +7439,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J175" t="n">
+        <v>2.06617323346896</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6958,6 +7479,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J176" t="n">
+        <v>2.066175685089311</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6995,6 +7519,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J177" t="n">
+        <v>2.066176189400227</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7032,6 +7559,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J178" t="n">
+        <v>2.06617645662378</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7069,6 +7599,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J179" t="n">
+        <v>2.066175959730812</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7106,6 +7639,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J180" t="n">
+        <v>2.066176423440151</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7143,6 +7679,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J181" t="n">
+        <v>1.801505855975165</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7180,6 +7719,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J182" t="n">
+        <v>2.066176269616428</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7217,6 +7759,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J183" t="n">
+        <v>2.066176347787543</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7254,6 +7799,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J184" t="n">
+        <v>2.0661762888095</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7291,6 +7839,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J185" t="n">
+        <v>2.066017466926104</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7328,6 +7879,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J186" t="n">
+        <v>2.066175788289572</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7365,6 +7919,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J187" t="n">
+        <v>2.066127388116142</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7402,6 +7959,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J188" t="n">
+        <v>2.066174244148567</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7439,6 +7999,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J189" t="n">
+        <v>2.051067720938504</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7476,6 +8039,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J190" t="n">
+        <v>2.066176443816031</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7513,6 +8079,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J191" t="n">
+        <v>2.066175559744194</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7550,6 +8119,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J192" t="n">
+        <v>2.066175961516271</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7587,6 +8159,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J193" t="n">
+        <v>2.066174822495047</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7624,6 +8199,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J194" t="n">
+        <v>2.060089769237345</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7661,6 +8239,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J195" t="n">
+        <v>2.057512570995057</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7698,6 +8279,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J196" t="n">
+        <v>2.005511788614183</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7735,6 +8319,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J197" t="n">
+        <v>1.93793070806225</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7772,6 +8359,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J198" t="n">
+        <v>1.937930860303146</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7809,6 +8399,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J199" t="n">
+        <v>1.937930569431944</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7846,6 +8439,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J200" t="n">
+        <v>1.937930495009037</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7883,6 +8479,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J201" t="n">
+        <v>1.937930973991175</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7920,6 +8519,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J202" t="n">
+        <v>1.937931038962269</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7957,6 +8559,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J203" t="n">
+        <v>1.937930803778988</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7994,6 +8599,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J204" t="n">
+        <v>1.937930873935012</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8031,6 +8639,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J205" t="n">
+        <v>1.937924995728686</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8068,6 +8679,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J206" t="n">
+        <v>1.93792928907211</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8105,6 +8719,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J207" t="n">
+        <v>1.937926994056337</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8142,6 +8759,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J208" t="n">
+        <v>1.937930955634777</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8179,6 +8799,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J209" t="n">
+        <v>1.937930949740365</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8216,6 +8839,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J210" t="n">
+        <v>1.937930986939691</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8253,6 +8879,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J211" t="n">
+        <v>1.937930533533352</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8290,6 +8919,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J212" t="n">
+        <v>1.937924826309758</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8327,6 +8959,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J213" t="n">
+        <v>1.937930884972264</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8364,6 +8999,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J214" t="n">
+        <v>1.937930704336291</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8401,6 +9039,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J215" t="n">
+        <v>1.937746746470809</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8438,6 +9079,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J216" t="n">
+        <v>1.93793044188223</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8475,6 +9119,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J217" t="n">
+        <v>1.937930292505633</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8512,6 +9159,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J218" t="n">
+        <v>1.937930382141506</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8549,6 +9199,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J219" t="n">
+        <v>1.937930729639059</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8586,6 +9239,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J220" t="n">
+        <v>1.937856179763728</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8623,6 +9279,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J221" t="n">
+        <v>1.937930434638227</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8660,6 +9319,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J222" t="n">
+        <v>1.937921534128494</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8697,6 +9359,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J223" t="n">
+        <v>1.937062417700198</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8734,6 +9399,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J224" t="n">
+        <v>1.93126645506119</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8771,6 +9439,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J225" t="n">
+        <v>1.928186704039184</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8808,6 +9479,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J226" t="n">
+        <v>1.924314153188166</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8845,6 +9519,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J227" t="n">
+        <v>1.926042697835616</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8882,6 +9559,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J228" t="n">
+        <v>1.907288706953343</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8919,6 +9599,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J229" t="n">
+        <v>1.907239596062292</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8956,6 +9639,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J230" t="n">
+        <v>1.907239819070433</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8993,6 +9679,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J231" t="n">
+        <v>1.907239249200571</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9030,6 +9719,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J232" t="n">
+        <v>1.907239521608013</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9067,6 +9759,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J233" t="n">
+        <v>1.907239696366015</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9104,6 +9799,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J234" t="n">
+        <v>1.907239574357518</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9141,6 +9839,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J235" t="n">
+        <v>1.907232361817432</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9178,6 +9879,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J236" t="n">
+        <v>1.907233054069461</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9215,6 +9919,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J237" t="n">
+        <v>1.907239704322743</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9252,6 +9959,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J238" t="n">
+        <v>1.907239617253753</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9289,6 +9999,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J239" t="n">
+        <v>1.907238438564761</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9326,6 +10039,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J240" t="n">
+        <v>1.90723979816527</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9363,6 +10079,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J241" t="n">
+        <v>1.907239626577775</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9400,6 +10119,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J242" t="n">
+        <v>1.907239669638576</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9437,6 +10159,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J243" t="n">
+        <v>1.90723978250357</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9474,6 +10199,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J244" t="n">
+        <v>1.907239768509027</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9511,6 +10239,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J245" t="n">
+        <v>1.907174112728783</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9548,6 +10279,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J246" t="n">
+        <v>1.907239731049609</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9585,6 +10319,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J247" t="n">
+        <v>1.907163706899396</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9622,6 +10359,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J248" t="n">
+        <v>1.906795909607526</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9659,6 +10399,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J249" t="n">
+        <v>1.907239692876278</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9696,6 +10439,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J250" t="n">
+        <v>1.905869972859147</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9733,6 +10479,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J251" t="n">
+        <v>1.905092573925691</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9770,6 +10519,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J252" t="n">
+        <v>1.903456054174802</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9807,6 +10559,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J253" t="n">
+        <v>1.907093808193669</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9844,6 +10599,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J254" t="n">
+        <v>1.899774133493929</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9881,6 +10639,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J255" t="n">
+        <v>1.893380145581977</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9918,6 +10679,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J256" t="n">
+        <v>1.839816545903616</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9955,6 +10719,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J257" t="n">
+        <v>1.836601250644366</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9992,6 +10759,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J258" t="n">
+        <v>1.836597457419133</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10029,6 +10799,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J259" t="n">
+        <v>1.836598531473076</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10066,6 +10839,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J260" t="n">
+        <v>1.836601130772292</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10103,6 +10879,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J261" t="n">
+        <v>1.836601272396611</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10140,6 +10919,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J262" t="n">
+        <v>1.836601231051685</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10177,6 +10959,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J263" t="n">
+        <v>1.836601208281179</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10214,6 +10999,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J264" t="n">
+        <v>1.836601049421226</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10251,6 +11039,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J265" t="n">
+        <v>1.836600944741907</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10288,6 +11079,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J266" t="n">
+        <v>1.836601279977319</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10325,6 +11119,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J267" t="n">
+        <v>1.836601284438517</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10362,6 +11159,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J268" t="n">
+        <v>1.8366012748399</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10399,6 +11199,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J269" t="n">
+        <v>1.836601244886498</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10436,6 +11239,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J270" t="n">
+        <v>1.836601028217057</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10473,6 +11279,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J271" t="n">
+        <v>1.836601226726912</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10510,6 +11319,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J272" t="n">
+        <v>1.836600317945132</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10547,6 +11359,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J273" t="n">
+        <v>1.834571569526324</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10584,6 +11399,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J274" t="n">
+        <v>1.836600920906292</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10621,6 +11439,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J275" t="n">
+        <v>1.836600816238765</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10658,6 +11479,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J276" t="n">
+        <v>1.832449272613343</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10695,6 +11519,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J277" t="n">
+        <v>1.827072452595199</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10732,6 +11559,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J278" t="n">
+        <v>1.826068638094019</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10769,6 +11599,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J279" t="n">
+        <v>1.800138358068853</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10806,6 +11639,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J280" t="n">
+        <v>1.797440709322642</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10843,6 +11679,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J281" t="n">
+        <v>1.797441063832738</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10880,6 +11719,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J282" t="n">
+        <v>1.797265121562288</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10917,6 +11759,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J283" t="n">
+        <v>1.797440432163808</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10954,6 +11799,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J284" t="n">
+        <v>1.797441219578045</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10991,6 +11839,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J285" t="n">
+        <v>1.797441320198675</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11028,6 +11879,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J286" t="n">
+        <v>1.79744128320616</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11065,6 +11919,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J287" t="n">
+        <v>1.797441348448827</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11102,6 +11959,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J288" t="n">
+        <v>1.797441337178048</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11139,6 +11999,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J289" t="n">
+        <v>1.797441215251417</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11176,6 +12039,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J290" t="n">
+        <v>1.797441272929671</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -11213,6 +12079,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J291" t="n">
+        <v>1.79743606414429</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11250,6 +12119,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J292" t="n">
+        <v>1.797441300710032</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -11287,6 +12159,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J293" t="n">
+        <v>1.797440768919309</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -11324,6 +12199,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J294" t="n">
+        <v>1.79685834631478</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -11361,6 +12239,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J295" t="n">
+        <v>1.787658000587845</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -11398,6 +12279,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J296" t="n">
+        <v>1.796400263362615</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -11435,6 +12319,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J297" t="n">
+        <v>1.775087501539095</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -11472,6 +12359,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J298" t="n">
+        <v>1.779222768198422</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -11509,6 +12399,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J299" t="n">
+        <v>1.659874568106962</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -11546,6 +12439,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J300" t="n">
+        <v>1.660016955392738</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11583,6 +12479,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J301" t="n">
+        <v>1.736174311928236</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11620,6 +12519,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J302" t="n">
+        <v>1.659448613180192</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11657,6 +12559,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J303" t="n">
+        <v>1.659448718871265</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11694,6 +12599,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J304" t="n">
+        <v>1.659448447014616</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11731,6 +12639,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J305" t="n">
+        <v>1.659448672566789</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11768,6 +12679,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J306" t="n">
+        <v>1.659413079152264</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11805,6 +12719,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J307" t="n">
+        <v>1.659448717024353</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11842,6 +12759,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J308" t="n">
+        <v>1.659344413189037</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11879,6 +12799,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J309" t="n">
+        <v>1.65944837576271</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11916,6 +12839,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J310" t="n">
+        <v>1.659448793287754</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11953,6 +12879,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J311" t="n">
+        <v>1.653881832284536</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11990,6 +12919,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J312" t="n">
+        <v>1.659448778382416</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -12027,6 +12959,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J313" t="n">
+        <v>1.659408706187215</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -12064,6 +12999,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J314" t="n">
+        <v>1.659446978431514</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -12101,6 +13039,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J315" t="n">
+        <v>1.659448336934663</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -12138,6 +13079,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J316" t="n">
+        <v>1.631391191742448</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -12175,6 +13119,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J317" t="n">
+        <v>1.650056583423203</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -12212,6 +13159,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J318" t="n">
+        <v>1.645095958250588</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -12249,6 +13199,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J319" t="n">
+        <v>1.589379545305641</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -12286,6 +13239,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J320" t="n">
+        <v>1.631513919105324</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -12323,6 +13279,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J321" t="n">
+        <v>1.628941273472549</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -12360,6 +13319,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J322" t="n">
+        <v>1.564044729426272</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -12397,6 +13359,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J323" t="n">
+        <v>1.567620218860464</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -12434,6 +13399,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J324" t="n">
+        <v>1.564004316927949</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -12471,6 +13439,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J325" t="n">
+        <v>1.564007280157548</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -12508,6 +13479,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J326" t="n">
+        <v>1.564007328834852</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -12545,6 +13519,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J327" t="n">
+        <v>1.564007404758322</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -12582,6 +13559,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J328" t="n">
+        <v>1.564007186010823</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -12619,6 +13599,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J329" t="n">
+        <v>1.564007364662543</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12656,6 +13639,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J330" t="n">
+        <v>1.564007306572253</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12693,6 +13679,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J331" t="n">
+        <v>1.564007344213977</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12730,6 +13719,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J332" t="n">
+        <v>1.564007324550756</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12767,6 +13759,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J333" t="n">
+        <v>1.564007396125013</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12804,6 +13799,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J334" t="n">
+        <v>1.564007292502193</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12841,6 +13839,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J335" t="n">
+        <v>1.564006859686957</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12878,6 +13879,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J336" t="n">
+        <v>1.564006011530902</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12915,6 +13919,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J337" t="n">
+        <v>1.562776085177858</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12952,6 +13959,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J338" t="n">
+        <v>1.560107768551133</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12989,6 +13999,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J339" t="n">
+        <v>1.55441612885054</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -13026,6 +14039,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J340" t="n">
+        <v>1.531853322075417</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -13063,6 +14079,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J341" t="n">
+        <v>1.492574124216963</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -13100,6 +14119,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J342" t="n">
+        <v>1.489399044943658</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -13137,6 +14159,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J343" t="n">
+        <v>1.489399132528345</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -13174,6 +14199,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J344" t="n">
+        <v>1.489398906051425</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -13211,6 +14239,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J345" t="n">
+        <v>1.48939925437137</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -13248,6 +14279,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J346" t="n">
+        <v>1.489399265666011</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -13285,6 +14319,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J347" t="n">
+        <v>1.489399244130957</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -13322,6 +14359,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J348" t="n">
+        <v>1.48939225463208</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -13359,6 +14399,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J349" t="n">
+        <v>1.489398697801616</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -13396,6 +14439,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J350" t="n">
+        <v>1.489079496918325</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -13433,6 +14479,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J351" t="n">
+        <v>1.489081924642017</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -13470,6 +14519,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J352" t="n">
+        <v>1.489391160182017</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -13507,6 +14559,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J353" t="n">
+        <v>1.437593308143596</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13544,6 +14599,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J354" t="n">
+        <v>1.488573601467066</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -13581,6 +14639,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J355" t="n">
+        <v>1.466148272872585</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -13618,6 +14679,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J356" t="n">
+        <v>1.450946379468018</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -13655,6 +14719,7 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -13692,6 +14757,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J358" t="n">
+        <v>1.450946555082981</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13729,6 +14797,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J359" t="n">
+        <v>1.450946523964769</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13766,6 +14837,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J360" t="n">
+        <v>1.450946534292673</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13803,6 +14877,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J361" t="n">
+        <v>1.450946475245845</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13840,6 +14917,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J362" t="n">
+        <v>1.450946320368562</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13877,6 +14957,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J363" t="n">
+        <v>1.450946581109076</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13914,6 +14997,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J364" t="n">
+        <v>1.450946037942863</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13951,6 +15037,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J365" t="n">
+        <v>1.450945933872188</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13988,6 +15077,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J366" t="n">
+        <v>1.450946539272984</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -14025,6 +15117,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J367" t="n">
+        <v>1.450946603584663</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -14062,6 +15157,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J368" t="n">
+        <v>1.450946306656379</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -14099,6 +15197,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J369" t="n">
+        <v>1.450895698383384</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -14136,6 +15237,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J370" t="n">
+        <v>1.426781557522145</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -14173,6 +15277,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J371" t="n">
+        <v>1.450477514783113</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -14210,6 +15317,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J372" t="n">
+        <v>1.450615777555034</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -14247,6 +15357,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J373" t="n">
+        <v>1.450264087791676</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -14284,6 +15397,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J374" t="n">
+        <v>1.450586146162192</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -14321,6 +15437,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J375" t="n">
+        <v>1.447752962876667</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -14358,6 +15477,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J376" t="n">
+        <v>1.443056364385268</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -14395,6 +15517,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J377" t="n">
+        <v>1.400537273029849</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -14432,6 +15557,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J378" t="n">
+        <v>1.39800979435403</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -14469,6 +15597,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J379" t="n">
+        <v>1.398009830293325</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -14506,6 +15637,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J380" t="n">
+        <v>1.398009840259556</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -14543,6 +15677,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J381" t="n">
+        <v>1.398009934049418</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -14580,6 +15717,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J382" t="n">
+        <v>1.398009810061479</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -14617,6 +15757,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J383" t="n">
+        <v>1.392510255844445</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -14654,6 +15797,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J384" t="n">
+        <v>1.398009931864461</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -14691,6 +15837,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J385" t="n">
+        <v>1.398009896230103</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -14728,6 +15877,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J386" t="n">
+        <v>1.361651950807371</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -14765,6 +15917,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J387" t="n">
+        <v>1.398009936923602</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -14802,6 +15957,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J388" t="n">
+        <v>1.397994480942256</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -14839,6 +15997,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J389" t="n">
+        <v>1.398009924490908</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -14876,6 +16037,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J390" t="n">
+        <v>1.398009776920025</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -14913,6 +16077,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J391" t="n">
+        <v>1.397751036500848</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -14950,6 +16117,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J392" t="n">
+        <v>1.398008685803972</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -14987,6 +16157,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J393" t="n">
+        <v>1.39704164736411</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -15024,6 +16197,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J394" t="n">
+        <v>1.39512630735126</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -15061,6 +16237,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J395" t="n">
+        <v>1.366573415587243</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -15098,6 +16277,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J396" t="n">
+        <v>1.370731859769893</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -15135,6 +16317,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J397" t="n">
+        <v>1.357487073644375</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -15172,6 +16357,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J398" t="n">
+        <v>1.357487833633096</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -15209,6 +16397,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J399" t="n">
+        <v>1.357487835083264</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -15246,6 +16437,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J400" t="n">
+        <v>1.357487867853173</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -15283,6 +16477,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J401" t="n">
+        <v>1.357487763509041</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -15320,6 +16517,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J402" t="n">
+        <v>1.357487842457754</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -15357,6 +16557,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J403" t="n">
+        <v>1.357487618918234</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -15394,6 +16597,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J404" t="n">
+        <v>1.357487721661544</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -15431,6 +16637,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J405" t="n">
+        <v>1.357487925321608</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -15468,6 +16677,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J406" t="n">
+        <v>1.357471337579618</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -15505,6 +16717,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J407" t="n">
+        <v>1.357487879776621</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -15542,6 +16757,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J408" t="n">
+        <v>1.357487868388035</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -15579,6 +16797,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J409" t="n">
+        <v>1.357487903107359</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -15616,6 +16837,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J410" t="n">
+        <v>1.35748766232688</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -15653,6 +16877,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J411" t="n">
+        <v>1.35747525499752</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -15690,6 +16917,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J412" t="n">
+        <v>1.357106632935036</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -15727,6 +16957,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J413" t="n">
+        <v>1.355902797407226</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -15764,6 +16997,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J414" t="n">
+        <v>1.352962921846618</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -15801,6 +17037,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J415" t="n">
+        <v>1.341234743963004</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -15838,6 +17077,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J416" t="n">
+        <v>1.309104211944584</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -15875,6 +17117,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J417" t="n">
+        <v>1.315132365326877</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -15912,6 +17157,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J418" t="n">
+        <v>1.315132574229109</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -15949,6 +17197,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J419" t="n">
+        <v>1.315132510796989</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -15986,6 +17237,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J420" t="n">
+        <v>1.315132399184751</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -16023,6 +17277,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J421" t="n">
+        <v>1.315132474277483</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -16060,6 +17317,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J422" t="n">
+        <v>1.315131977696422</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -16097,6 +17357,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J423" t="n">
+        <v>1.315132572028266</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -16134,6 +17397,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J424" t="n">
+        <v>1.315132441906446</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -16171,6 +17437,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J425" t="n">
+        <v>1.315132500193073</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -16208,6 +17477,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J426" t="n">
+        <v>1.315132590406891</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -16245,6 +17517,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J427" t="n">
+        <v>1.314952465018667</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -16282,6 +17557,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J428" t="n">
+        <v>1.31513221099674</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -16319,6 +17597,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J429" t="n">
+        <v>1.314559848813601</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -16356,6 +17637,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J430" t="n">
+        <v>1.314417937689801</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -16393,6 +17677,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J431" t="n">
+        <v>1.307998653612452</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -16430,6 +17717,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J432" t="n">
+        <v>1.289239865210043</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -16467,6 +17757,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J433" t="n">
+        <v>1.287022724383819</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -16504,6 +17797,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J434" t="n">
+        <v>1.287022611874177</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -16541,6 +17837,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J435" t="n">
+        <v>1.244048075428292</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -16578,6 +17877,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J436" t="n">
+        <v>1.287022837721128</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -16615,6 +17917,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J437" t="n">
+        <v>1.28702281766302</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -16652,6 +17957,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J438" t="n">
+        <v>1.287022750978062</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -16689,6 +17997,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J439" t="n">
+        <v>1.287022678069677</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -16726,6 +18037,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J440" t="n">
+        <v>1.287022807551603</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -16763,6 +18077,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J441" t="n">
+        <v>1.287022836604405</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -16800,6 +18117,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J442" t="n">
+        <v>1.287022886339532</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -16837,6 +18157,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J443" t="n">
+        <v>1.287022895331866</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -16874,6 +18197,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J444" t="n">
+        <v>1.287022781506298</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -16911,6 +18237,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J445" t="n">
+        <v>1.287022778851928</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -16948,6 +18277,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J446" t="n">
+        <v>1.287022793610643</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -16985,6 +18317,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J447" t="n">
+        <v>1.286307274580767</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -17022,6 +18357,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J448" t="n">
+        <v>1.242821690292362</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -17059,6 +18397,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J449" t="n">
+        <v>1.286327953467334</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -17096,6 +18437,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J450" t="n">
+        <v>1.284647344658417</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -17133,6 +18477,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J451" t="n">
+        <v>1.277056129228914</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -17170,6 +18517,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J452" t="n">
+        <v>1.225290425292803</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -17207,6 +18557,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J453" t="n">
+        <v>1.225290642369345</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -17244,6 +18597,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J454" t="n">
+        <v>1.225290657857929</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -17281,6 +18637,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J455" t="n">
+        <v>1.225290624555859</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -17318,6 +18677,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J456" t="n">
+        <v>1.225289392544644</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -17355,6 +18717,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J457" t="n">
+        <v>1.22528989901598</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -17392,6 +18757,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J458" t="n">
+        <v>1.225290603476152</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -17429,6 +18797,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J459" t="n">
+        <v>1.22529067045267</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -17466,6 +18837,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J460" t="n">
+        <v>1.225290666569324</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -17503,6 +18877,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J461" t="n">
+        <v>1.225290692393307</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -17540,6 +18917,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J462" t="n">
+        <v>1.224632762158923</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -17577,6 +18957,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J463" t="n">
+        <v>1.224739821492631</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -17614,6 +18997,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J464" t="n">
+        <v>1.2221292515046</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -17651,6 +19037,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J465" t="n">
+        <v>1.213864807187327</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -17688,6 +19077,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J466" t="n">
+        <v>1.174094698795059</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -17725,6 +19117,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J467" t="n">
+        <v>1.174094690932951</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -17762,6 +19157,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J468" t="n">
+        <v>1.174094738209521</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -17799,6 +19197,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J469" t="n">
+        <v>1.174094680122346</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -17836,6 +19237,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J470" t="n">
+        <v>1.174094426689457</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -17873,6 +19277,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J471" t="n">
+        <v>1.174094361850836</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -17910,6 +19317,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J472" t="n">
+        <v>1.174081495732382</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -17947,6 +19357,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J473" t="n">
+        <v>1.174094186262858</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -17984,6 +19397,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J474" t="n">
+        <v>1.17370495556857</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -18021,6 +19437,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J475" t="n">
+        <v>1.174072041091558</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -18058,6 +19477,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J476" t="n">
+        <v>1.173909270793001</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -18095,6 +19517,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J477" t="n">
+        <v>1.172276119369288</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -18132,6 +19557,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J478" t="n">
+        <v>1.162919003042407</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -18169,6 +19597,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J479" t="n">
+        <v>1.124000058720768</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -18206,6 +19637,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -18243,6 +19677,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J481" t="n">
+        <v>1.12400002000816</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -18280,6 +19717,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J482" t="n">
+        <v>1.124000044787267</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -18317,6 +19757,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J483" t="n">
+        <v>1.123999955516092</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -18354,6 +19797,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J484" t="n">
+        <v>1.124000002266179</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -18391,6 +19837,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J485" t="n">
+        <v>1.124000013149707</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -18428,6 +19877,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J486" t="n">
+        <v>1.12400002109903</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -18465,6 +19917,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J487" t="n">
+        <v>1.123999902189465</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -18502,6 +19957,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J488" t="n">
+        <v>1.124003006969788</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -18539,6 +19997,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J489" t="n">
+        <v>1.123921836167828</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -18576,6 +20037,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J490" t="n">
+        <v>1.124000007050692</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -18613,6 +20077,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J491" t="n">
+        <v>1.123999859815729</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -18650,6 +20117,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J492" t="n">
+        <v>1.123833993190409</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -18687,6 +20157,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J493" t="n">
+        <v>1.114132714508522</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -18724,6 +20197,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J494" t="n">
+        <v>1.121471383490604</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -18761,6 +20237,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J495" t="n">
+        <v>1.068441054982013</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -18798,6 +20277,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J496" t="n">
+        <v>1.068441045604116</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -18835,6 +20317,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J497" t="n">
+        <v>1.068403908794788</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -18872,6 +20357,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J498" t="n">
+        <v>1.068441012210505</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -18909,6 +20397,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J499" t="n">
+        <v>1.068440900388877</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -18946,6 +20437,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J500" t="n">
+        <v>1.068441022200211</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -18983,6 +20477,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J501" t="n">
+        <v>1.06844106266895</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -19020,6 +20517,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J502" t="n">
+        <v>1.068440952890193</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -19057,6 +20557,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J503" t="n">
+        <v>1.068441007963567</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -19094,6 +20597,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J504" t="n">
+        <v>1.068436844917588</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -19131,6 +20637,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J505" t="n">
+        <v>1.068440758409455</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -19168,6 +20677,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J506" t="n">
+        <v>1.068382584628454</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -19205,6 +20717,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J507" t="n">
+        <v>1.067555428805347</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -19242,6 +20757,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J508" t="n">
+        <v>1.067164421856924</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -19279,6 +20797,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J509" t="n">
+        <v>1.063051654599932</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -19316,6 +20837,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J510" t="n">
+        <v>1.063051587050027</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -19353,6 +20877,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J511" t="n">
+        <v>1.063051477514026</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -19390,6 +20917,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J512" t="n">
+        <v>1.063051393609604</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -19427,6 +20957,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J513" t="n">
+        <v>1.060035523978686</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -19464,6 +20997,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J514" t="n">
+        <v>1.063051647748188</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -19501,6 +21037,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J515" t="n">
+        <v>1.063051687026934</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -19538,6 +21077,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J516" t="n">
+        <v>1.063051694070346</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -19575,6 +21117,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J517" t="n">
+        <v>1.06305146330219</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -19612,6 +21157,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J518" t="n">
+        <v>1.063046769344135</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -19649,6 +21197,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J519" t="n">
+        <v>1.063051266790242</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -19686,6 +21237,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J520" t="n">
+        <v>1.063006102419928</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -19723,6 +21277,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J521" t="n">
+        <v>1.062776001359963</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -19760,6 +21317,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J522" t="n">
+        <v>1.061073921541031</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -19797,6 +21357,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J523" t="n">
+        <v>1.059045064975868</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -19834,6 +21397,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J524" t="n">
+        <v>1.059045223087048</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -19871,6 +21437,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J525" t="n">
+        <v>1.059045016341706</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -19908,6 +21477,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J526" t="n">
+        <v>1.059045218437113</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -19945,6 +21517,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J527" t="n">
+        <v>1.059044715797497</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -19982,6 +21557,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J528" t="n">
+        <v>1.059044585044537</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -20019,6 +21597,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J529" t="n">
+        <v>1.05904124026463</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -20056,6 +21637,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J530" t="n">
+        <v>1.058822757606682</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -20093,6 +21677,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J531" t="n">
+        <v>1.057769533556616</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -20130,6 +21717,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J532" t="n">
+        <v>1.054412311584192</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -20167,6 +21757,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J533" t="n">
+        <v>1.03690035885012</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -20204,6 +21797,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J534" t="n">
+        <v>1.03690035737399</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -20241,6 +21837,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J535" t="n">
+        <v>1.03690034511705</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -20278,6 +21877,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J536" t="n">
+        <v>1.036900279461466</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -20315,6 +21917,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J537" t="n">
+        <v>1.036900330052597</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -20352,6 +21957,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J538" t="n">
+        <v>1.036900016348245</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -20389,6 +21997,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J539" t="n">
+        <v>1.036828674096905</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -20426,6 +22037,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J540" t="n">
+        <v>1.031822347271053</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -20463,6 +22077,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J541" t="n">
+        <v>1.035582262425225</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -20500,6 +22117,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J542" t="n">
+        <v>1.036768614763748</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -20537,6 +22157,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J543" t="n">
+        <v>1.035416764280992</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -20574,6 +22197,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J544" t="n">
+        <v>1.031823628934542</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -20611,6 +22237,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J545" t="n">
+        <v>1.031823685596326</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -20648,6 +22277,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J546" t="n">
+        <v>1.03182373362001</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -20685,6 +22317,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J547" t="n">
+        <v>1.031823612273297</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -20722,6 +22357,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J548" t="n">
+        <v>1.03182362008254</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -20759,6 +22397,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J549" t="n">
+        <v>1.031823727405657</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -20796,6 +22437,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J550" t="n">
+        <v>1.031823684518534</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -20833,6 +22477,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J551" t="n">
+        <v>1.031812554587402</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -20870,6 +22517,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J552" t="n">
+        <v>1.031823618803063</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -20907,6 +22557,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J553" t="n">
+        <v>1.031385672604098</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -20944,6 +22597,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J554" t="n">
+        <v>1.030204734663568</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -20981,6 +22637,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J555" t="n">
+        <v>1.022592276649373</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -21018,6 +22677,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -21055,6 +22717,9 @@
           <t>February</t>
         </is>
       </c>
+      <c r="J557" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -21092,6 +22757,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -21129,6 +22797,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J559" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -21166,6 +22837,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -21203,6 +22877,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -21240,6 +22917,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J562" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -21277,6 +22957,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J563" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -21314,6 +22997,9 @@
           <t>October</t>
         </is>
       </c>
+      <c r="J564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -21351,6 +23037,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -21388,6 +23077,9 @@
           <t>December</t>
         </is>
       </c>
+      <c r="J566" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -21425,6 +23117,9 @@
           <t>January</t>
         </is>
       </c>
+      <c r="J567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -21462,6 +23157,9 @@
           <t>March</t>
         </is>
       </c>
+      <c r="J568" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -21499,6 +23197,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J569" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -21536,6 +23237,9 @@
           <t>April</t>
         </is>
       </c>
+      <c r="J570" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -21573,6 +23277,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J571" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -21610,6 +23317,9 @@
           <t>May</t>
         </is>
       </c>
+      <c r="J572" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -21647,6 +23357,9 @@
           <t>June</t>
         </is>
       </c>
+      <c r="J573" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -21684,6 +23397,9 @@
           <t>July</t>
         </is>
       </c>
+      <c r="J574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -21721,6 +23437,9 @@
           <t>August</t>
         </is>
       </c>
+      <c r="J575" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -21758,6 +23477,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -21795,6 +23517,9 @@
           <t>September</t>
         </is>
       </c>
+      <c r="J577" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -21832,6 +23557,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J578" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -21869,6 +23597,9 @@
           <t>November</t>
         </is>
       </c>
+      <c r="J579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -21905,6 +23636,9 @@
         <is>
           <t>December</t>
         </is>
+      </c>
+      <c r="J580" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
